--- a/output/Demographic_Stats.xlsx
+++ b/output/Demographic_Stats.xlsx
@@ -7,12 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage_Since" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gender" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Education" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Occupation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily_Usage_Frequence" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gender" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Digital banking function" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage_Frequence" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="loan size" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brand" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +443,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Usage_Since</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -458,53 +460,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dưới 1 năm</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>30.3</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Từ trên 3 năm đến 5 năm</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Từ 1 năm đến 3 năm</t>
+          <t>Ái nữ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Trên 5 năm</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -546,53 +535,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Từ 41 đến 50 tuổi</t>
+          <t>18 - 25</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Từ 31 đến 40 tuổi</t>
+          <t>30 - 40</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>25.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Trên 50 tuổi</t>
+          <t>25 - 30</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Từ 18 đến 30 tuổi</t>
+          <t>Trên 40</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>22.5</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +606,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Occupation</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -634,53 +623,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Đại học</t>
+          <t>Học sinh/ Sinh viên</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>30.3</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Trung cấp, Cao đẳng</t>
+          <t>Nhân viên văn phòng/ công nhân/ quản lý</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>25.8</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Trên Đại học</t>
+          <t>Công việc tự do/ Tự doanh</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>23.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Phổ thông</t>
+          <t>Công chưcd</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.2</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -689,6 +678,325 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Dưới 5 triệu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>5 - 10 triệu</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>10 - 20 triệu</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>trên 30 triệu</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20 - 30 triệu</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Digital banking function</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online, Mở tài khoản online</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online, Mở tài khoản online, Gửi tiền online</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Chuyển khoản online</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online, Gửi tiền online</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Chuyển khoản online, Gửi tiền online</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online, Mở tài khoản online, Vay tiền online, Gửi tiền online</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Chuyển khoản online</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online, Mở tài khoản online, Gửi tiền online, </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Thanh toán dùng QR code, Chuyển khoản online, Mở tài khoản online, Vay tiền online</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Chuyển khoản online, Mở tài khoản online</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Thanh toán online, Gửi tiền online</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -705,7 +1013,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Usage_Frequence</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -722,40 +1030,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Từ 10 triệu đồng/ tháng đến 20 triệu đồng/ tháng</t>
+          <t>Tôi dùng thường xuyên</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C2" t="n">
-        <v>38.2</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Dưới 10 triệu đồng/ tháng</t>
+          <t>Thỉnh thoảng sử dụng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Trên 20 triệu đồng/ tháng</t>
+          <t>Tôi thường dùng tiền mặt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -763,13 +1071,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,7 +1088,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Daily_Usage_Frequence</t>
+          <t>loan size</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -797,79 +1105,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hàng ngày</t>
+          <t>Tôi chưa vay bao giờ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
-        <v>21.3</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Vài lần một tuần</t>
+          <t>Dưới 10 triệu</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hàng tuần</t>
+          <t>10 - 50 triệu</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hiếm khi</t>
+          <t>trên 100 triệu</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Vài lần 1 tháng</t>
+          <t>50 - 100 triệu</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hàng tháng</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.5</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -877,13 +1172,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +1189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Brand</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -911,27 +1206,274 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>60.7</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>FE credit, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>39.3</v>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Shinhan finance, Lotte finance, Mirea asset, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Shinhan finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FE credit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lotte finance</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Shinhan finance, Lotte finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Shinhan finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Shinhan finance, Lotte finance, Mirea asset</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Lotte finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Lotte finance, Mirea asset, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Shinhan finance, Lotte finance</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Home credit, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Home credit, Shinhan finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FE credit, Home credit, Lotte finance, Mirea asset</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Lotte finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...), </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Shinhan finance, Lotte finance, Ngân hàng TMCP (VCB, Techcombank, ACB, MB, VPbank...)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Cake</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
